--- a/baseline_model_workshop/data/House_Info_nostore.xlsx
+++ b/baseline_model_workshop/data/House_Info_nostore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yin\Desktop\bay\Long_Term_Housing_Planning\baseline_model_workshop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A63F90D-E00B-4136-9E5A-62BBC66B4646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C80E06C-6643-4278-BF3F-1F6783A5FBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="29760" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,7 +374,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -414,10 +414,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C3" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/baseline_model_workshop/data/House_Info_nostore.xlsx
+++ b/baseline_model_workshop/data/House_Info_nostore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yin\Desktop\bay\Long_Term_Housing_Planning\baseline_model_workshop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C80E06C-6643-4278-BF3F-1F6783A5FBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD52A43-7546-4E40-BC10-08E18E89A343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="29760" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,7 +374,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -414,10 +414,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="C3" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
